--- a/Excel Data/assignLocker.xlsx
+++ b/Excel Data/assignLocker.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti6\IdeaProjects\Retail Ops\Excel Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti5\IdeaProjects\Retail Project\Excel Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>KEY</t>
   </si>
@@ -48,6 +48,24 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>OLD.LOCKER.NO</t>
+  </si>
+  <si>
+    <t>MAN.NAME:1</t>
+  </si>
+  <si>
+    <t>MAN.ADDRESS:1:1</t>
+  </si>
+  <si>
+    <t>MAN.CONTACT.NO:1</t>
+  </si>
+  <si>
+    <t>MAN.ID.TYPE:1</t>
+  </si>
+  <si>
+    <t>MAN.ID.NO:1</t>
   </si>
 </sst>
 </file>
@@ -365,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,7 +399,7 @@
     <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,8 +418,26 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>9</v>
       </c>

--- a/Excel Data/assignLocker.xlsx
+++ b/Excel Data/assignLocker.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti5\IdeaProjects\Retail Project\Excel Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Workspace Functional Testing\Retail Ops\Excel Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -386,7 +386,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
